--- a/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>113575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95159</v>
+        <v>95941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132515</v>
+        <v>134454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1638902168205693</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1373154067177079</v>
+        <v>0.1384436012474369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1912212336821521</v>
+        <v>0.1940186568268518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -765,19 +765,19 @@
         <v>64947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51828</v>
+        <v>52096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81347</v>
+        <v>80244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09435103667445971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07529346347455046</v>
+        <v>0.0756822208409953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1181767577933172</v>
+        <v>0.116573894503682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -786,19 +786,19 @@
         <v>178522</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>153344</v>
+        <v>156343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202290</v>
+        <v>206260</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1292374930505903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.111010797880614</v>
+        <v>0.1131814744497364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1464442152406359</v>
+        <v>0.1493179198581894</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>579419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>560479</v>
+        <v>558540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597835</v>
+        <v>597053</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8361097831794307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.808778766317848</v>
+        <v>0.8059813431731482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8626845932822921</v>
+        <v>0.8615563987525632</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>626</v>
@@ -836,19 +836,19 @@
         <v>623404</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607004</v>
+        <v>608107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>636523</v>
+        <v>636255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9056489633255402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8818232422066828</v>
+        <v>0.8834261054963179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9247065365254495</v>
+        <v>0.9243177791590047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1196</v>
@@ -857,19 +857,19 @@
         <v>1202823</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1179055</v>
+        <v>1175085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1228001</v>
+        <v>1225002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8707625069494097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8535557847593641</v>
+        <v>0.8506820801418108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8889892021193861</v>
+        <v>0.8868185255502636</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>159469</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137156</v>
+        <v>138286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184759</v>
+        <v>184487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.166368808308761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1430901989951677</v>
+        <v>0.1442696354172682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1927531862970683</v>
+        <v>0.1924688070942039</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -982,19 +982,19 @@
         <v>112324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93647</v>
+        <v>93913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133354</v>
+        <v>132566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1164150249098332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09705771350076206</v>
+        <v>0.09733323421921918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.138210306614231</v>
+        <v>0.1373942231461209</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>257</v>
@@ -1003,19 +1003,19 @@
         <v>271794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>243155</v>
+        <v>242112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304228</v>
+        <v>302932</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1413096660416255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1264201751722001</v>
+        <v>0.1258778276621192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1581729693255651</v>
+        <v>0.1574987822362811</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>799059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>773769</v>
+        <v>774041</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>821372</v>
+        <v>820242</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.833631191691239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072468137029317</v>
+        <v>0.8075311929057961</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8569098010048324</v>
+        <v>0.8557303645827318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>795</v>
@@ -1053,19 +1053,19 @@
         <v>852538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>831508</v>
+        <v>832296</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>871215</v>
+        <v>870949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8835849750901669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8617896933857692</v>
+        <v>0.8626057768538792</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9029422864992379</v>
+        <v>0.9026667657807809</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1541</v>
@@ -1074,19 +1074,19 @@
         <v>1651597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1619163</v>
+        <v>1620459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1680236</v>
+        <v>1681279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8586903339583745</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8418270306744349</v>
+        <v>0.842501217763719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8735798248277998</v>
+        <v>0.8741221723378809</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>99421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80414</v>
+        <v>80294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120685</v>
+        <v>117166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1467036189337826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1186572683068616</v>
+        <v>0.1184809033956985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1780805765472751</v>
+        <v>0.172888934362034</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1199,19 +1199,19 @@
         <v>98818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81915</v>
+        <v>82641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116905</v>
+        <v>118822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1448563139233821</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1200789612703261</v>
+        <v>0.1211418943459012</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1713703028168853</v>
+        <v>0.1741795289858721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -1220,19 +1220,19 @@
         <v>198239</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173795</v>
+        <v>173818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225006</v>
+        <v>224916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1457769215161532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1278019374954843</v>
+        <v>0.1278190629257445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1654606991338526</v>
+        <v>0.1653941222679369</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>578276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>557012</v>
+        <v>560531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>597283</v>
+        <v>597403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8532963810662174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8219194234527248</v>
+        <v>0.8271110656379659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8813427316931384</v>
+        <v>0.8815190966043014</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>593</v>
@@ -1270,19 +1270,19 @@
         <v>583362</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565275</v>
+        <v>563358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>600265</v>
+        <v>599539</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8551436860766178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8286296971831147</v>
+        <v>0.8258204710141281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8799210387296742</v>
+        <v>0.8788581056540991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1140</v>
@@ -1291,19 +1291,19 @@
         <v>1161638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1134871</v>
+        <v>1134961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1186082</v>
+        <v>1186059</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8542230784838468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8345393008661474</v>
+        <v>0.834605877732063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8721980625045157</v>
+        <v>0.8721809370742549</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>141002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120819</v>
+        <v>120470</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161720</v>
+        <v>161583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1500587769500542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1285795105934879</v>
+        <v>0.1282082776200446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1721077128449849</v>
+        <v>0.1719622484497696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -1416,19 +1416,19 @@
         <v>142853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120348</v>
+        <v>122427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167212</v>
+        <v>167932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1379415864322418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1162104526840704</v>
+        <v>0.1182182020141286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1614629889944639</v>
+        <v>0.162158657229879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -1437,19 +1437,19 @@
         <v>283855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252914</v>
+        <v>251133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312812</v>
+        <v>314284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1437058456153281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.128041244912446</v>
+        <v>0.1271398531937272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1583655904224419</v>
+        <v>0.159110933106267</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>798643</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>777925</v>
+        <v>778062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>818826</v>
+        <v>819175</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8499412230499458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8278922871550149</v>
+        <v>0.8280377515502304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8714204894065121</v>
+        <v>0.8717917223799555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>854</v>
@@ -1487,19 +1487,19 @@
         <v>892753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>868394</v>
+        <v>867674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>915258</v>
+        <v>913179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8620584135677581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8385370110055361</v>
+        <v>0.837841342770121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.883789547315929</v>
+        <v>0.8817817979858714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1691</v>
@@ -1508,19 +1508,19 @@
         <v>1691396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1662439</v>
+        <v>1660967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1722337</v>
+        <v>1724118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8562941543846718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.841634409577558</v>
+        <v>0.840889066893733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8719587550875539</v>
+        <v>0.8728601468062729</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>513467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1570780197001549</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>421</v>
@@ -1633,19 +1633,19 @@
         <v>418942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1242783733325966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>927</v>
@@ -1654,19 +1654,19 @@
         <v>932409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1404259336869714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2755397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2868</v>
@@ -1704,19 +1704,19 @@
         <v>2952057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5568</v>
@@ -1725,19 +1725,19 @@
         <v>5707455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>124091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106103</v>
+        <v>104671</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143841</v>
+        <v>144628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1778281554837664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1520497925173207</v>
+        <v>0.1499982339713861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2061308712556983</v>
+        <v>0.2072577041275523</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2090,19 +2090,19 @@
         <v>94227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77062</v>
+        <v>75510</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113803</v>
+        <v>115265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.135585642214095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.11088683554346</v>
+        <v>0.1086528144370645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1637543764840787</v>
+        <v>0.1658580176474065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -2111,19 +2111,19 @@
         <v>218318</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>193570</v>
+        <v>192110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>246979</v>
+        <v>246799</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1567501787426438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1389811348219182</v>
+        <v>0.1379330406194956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1773282108755473</v>
+        <v>0.1771990138918538</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>573725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553975</v>
+        <v>553188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>591713</v>
+        <v>593145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8221718445162336</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7938691287443007</v>
+        <v>0.7927422958724476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8479502074826792</v>
+        <v>0.8500017660286139</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>562</v>
@@ -2161,19 +2161,19 @@
         <v>600735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581159</v>
+        <v>579697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>617900</v>
+        <v>619452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8644143577859049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8362456235159214</v>
+        <v>0.8341419823525938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8891131644565401</v>
+        <v>0.8913471855629356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1104</v>
@@ -2182,19 +2182,19 @@
         <v>1174459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1145798</v>
+        <v>1145978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1199207</v>
+        <v>1200667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8432498212573563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8226717891244527</v>
+        <v>0.8228009861081462</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8610188651780818</v>
+        <v>0.8620669593805044</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>160640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138981</v>
+        <v>136897</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185331</v>
+        <v>186259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1593550605494241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1378687462017048</v>
+        <v>0.1358016617664959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1838486438130493</v>
+        <v>0.1847685941623247</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -2307,19 +2307,19 @@
         <v>130685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111333</v>
+        <v>111478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154896</v>
+        <v>156003</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1279780086741452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1090271579703014</v>
+        <v>0.1091689356908405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1516877086935926</v>
+        <v>0.1527724103140767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -2328,19 +2328,19 @@
         <v>291325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>257467</v>
+        <v>261658</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>324174</v>
+        <v>325274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1435653823291734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1268800289167525</v>
+        <v>0.1289453546810897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1597534819789888</v>
+        <v>0.1602953709047214</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>847425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>822734</v>
+        <v>821806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>869084</v>
+        <v>871168</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8406449394505759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8161513561869508</v>
+        <v>0.8152314058376749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8621312537982952</v>
+        <v>0.8641983382335041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>809</v>
@@ -2378,19 +2378,19 @@
         <v>890464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>866253</v>
+        <v>865146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>909816</v>
+        <v>909671</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8720219913258548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8483122913064074</v>
+        <v>0.8472275896859234</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8909728420296986</v>
+        <v>0.8908310643091595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1585</v>
@@ -2399,19 +2399,19 @@
         <v>1737889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1705040</v>
+        <v>1703940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1771747</v>
+        <v>1767556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8564346176708266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8402465180210111</v>
+        <v>0.8397046290952785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8731199710832475</v>
+        <v>0.8710546453189102</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>135541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113401</v>
+        <v>114352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155820</v>
+        <v>158746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1808857612512502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1513389402189919</v>
+        <v>0.152607864767236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2079486432901593</v>
+        <v>0.2118532613080793</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -2524,19 +2524,19 @@
         <v>109700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91512</v>
+        <v>90185</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129744</v>
+        <v>131385</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1429077281578547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1192144644834047</v>
+        <v>0.1174851732108296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1690201541304118</v>
+        <v>0.1711575727559602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -2545,19 +2545,19 @@
         <v>245241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217286</v>
+        <v>217922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>275077</v>
+        <v>274808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1616675943933643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1432391481156847</v>
+        <v>0.1436582283688496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1813357403719988</v>
+        <v>0.1811581195176843</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>613780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>593501</v>
+        <v>590575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635920</v>
+        <v>634969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8191142387487498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7920513567098407</v>
+        <v>0.7881467386919206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.848661059781008</v>
+        <v>0.8473921352327639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>592</v>
@@ -2595,19 +2595,19 @@
         <v>657927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637883</v>
+        <v>636242</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>676115</v>
+        <v>677442</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8570922718421453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8309798458695882</v>
+        <v>0.82884242724404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8807855355165953</v>
+        <v>0.8825148267891705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1145</v>
@@ -2616,19 +2616,19 @@
         <v>1271708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1241872</v>
+        <v>1242141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1299663</v>
+        <v>1299027</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8383324056066357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8186642596280013</v>
+        <v>0.8188418804823164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8567608518843158</v>
+        <v>0.8563417716311506</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>177632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155727</v>
+        <v>155730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204802</v>
+        <v>205022</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1882004977336981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.164991696189874</v>
+        <v>0.1649953239678728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2169865645640155</v>
+        <v>0.2172200120146544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -2741,19 +2741,19 @@
         <v>140079</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117708</v>
+        <v>119846</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165729</v>
+        <v>163749</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1347312758474017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1132149790443786</v>
+        <v>0.1152712716834244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1594026719167919</v>
+        <v>0.1574978625524024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>315</v>
@@ -2762,19 +2762,19 @@
         <v>317711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>285322</v>
+        <v>285187</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349722</v>
+        <v>350862</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1601740700788018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1438452040543624</v>
+        <v>0.1437770423220672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1763125188102987</v>
+        <v>0.1768872373743141</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>766213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>739043</v>
+        <v>738823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>788118</v>
+        <v>788115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8117995022663019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7830134354359846</v>
+        <v>0.7827799879853456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.835008303810126</v>
+        <v>0.8350046760321274</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>854</v>
@@ -2812,19 +2812,19 @@
         <v>899611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>873961</v>
+        <v>875941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>921982</v>
+        <v>919844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8652687241525983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8405973280832079</v>
+        <v>0.8425021374475976</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8867850209556214</v>
+        <v>0.8847287283165757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1582</v>
@@ -2833,19 +2833,19 @@
         <v>1665824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1633813</v>
+        <v>1632673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1698213</v>
+        <v>1698348</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8398259299211982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8236874811897014</v>
+        <v>0.8231127626256859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8561547959456377</v>
+        <v>0.8562229576779328</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>597905</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1759037730055334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>448</v>
@@ -2958,19 +2958,19 @@
         <v>474690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1347239336185309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1031</v>
@@ -2979,19 +2979,19 @@
         <v>1072595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1549439035260347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2801142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2817</v>
@@ -3029,19 +3029,19 @@
         <v>3048737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5416</v>
@@ -3050,19 +3050,19 @@
         <v>5849880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>54175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42516</v>
+        <v>41430</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70205</v>
+        <v>71719</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08051913923424971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06319019753353652</v>
+        <v>0.06157601175259345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1043449363140752</v>
+        <v>0.1065947938888254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -3415,19 +3415,19 @@
         <v>51322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39236</v>
+        <v>38989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67038</v>
+        <v>65733</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07659661900644013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05855822366658783</v>
+        <v>0.0581899620135187</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1000519745302053</v>
+        <v>0.09810375317354519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3436,19 +3436,19 @@
         <v>105497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86522</v>
+        <v>87433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126065</v>
+        <v>126569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07856195209914034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06443171426540199</v>
+        <v>0.06511005237671989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09387836156335952</v>
+        <v>0.09425430425830228</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>618645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>602615</v>
+        <v>601101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>630304</v>
+        <v>631390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9194808607657503</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8956550636859251</v>
+        <v>0.8934052061111747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9368098024664638</v>
+        <v>0.9384239882474066</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>609</v>
@@ -3486,19 +3486,19 @@
         <v>618709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>602993</v>
+        <v>604298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>630795</v>
+        <v>631042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9234033809935599</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8999480254697948</v>
+        <v>0.9018962468264551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9414417763334122</v>
+        <v>0.9418100379864813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1209</v>
@@ -3507,19 +3507,19 @@
         <v>1237354</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1216786</v>
+        <v>1216282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1256329</v>
+        <v>1255418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9214380479008597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9061216384366405</v>
+        <v>0.9057456957416977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9355682857345977</v>
+        <v>0.9348899476232785</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>131732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110949</v>
+        <v>109592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156636</v>
+        <v>155149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1300873110678679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.109563644352319</v>
+        <v>0.1082234966029484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1546804320169107</v>
+        <v>0.1532119610225503</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -3632,19 +3632,19 @@
         <v>126252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106122</v>
+        <v>106423</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147980</v>
+        <v>148559</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1218204055449882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1023973854028975</v>
+        <v>0.102687759398009</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1427864870858578</v>
+        <v>0.1433443541399939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -3653,19 +3653,19 @@
         <v>257984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227048</v>
+        <v>229815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289849</v>
+        <v>292460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1259059829557914</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1108082776188314</v>
+        <v>0.1121584086349905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1414575774390733</v>
+        <v>0.1427319005960212</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>880911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856007</v>
+        <v>857494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>901694</v>
+        <v>903051</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8699126889321321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8453195679830888</v>
+        <v>0.8467880389774498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8904363556476805</v>
+        <v>0.8917765033970521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>849</v>
@@ -3703,19 +3703,19 @@
         <v>910124</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>888396</v>
+        <v>887817</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>930254</v>
+        <v>929953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8781795944550117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8572135129141434</v>
+        <v>0.8566556458600056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8976026145971026</v>
+        <v>0.8973122406019909</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1675</v>
@@ -3724,19 +3724,19 @@
         <v>1791035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1759170</v>
+        <v>1756559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1821971</v>
+        <v>1819204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8740940170442085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8585424225609267</v>
+        <v>0.8572680994039787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8891917223811685</v>
+        <v>0.8878415913650095</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>116418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97767</v>
+        <v>97849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136998</v>
+        <v>139347</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1554018165009967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.130506057526452</v>
+        <v>0.1306157051956649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1828739671462321</v>
+        <v>0.1860097962623589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -3849,19 +3849,19 @@
         <v>140292</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120080</v>
+        <v>119239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164576</v>
+        <v>164478</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1808967106557997</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1548348304888993</v>
+        <v>0.1537502924362945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2122090151106669</v>
+        <v>0.212083593736772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -3870,19 +3870,19 @@
         <v>256709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>227448</v>
+        <v>225421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285803</v>
+        <v>286754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1683699597658392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1491783109384356</v>
+        <v>0.1478483810851557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1874517113549976</v>
+        <v>0.1880752056697847</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>632721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612141</v>
+        <v>609792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>651372</v>
+        <v>651290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8445981834990033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8171260328537681</v>
+        <v>0.8139902037376412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8694939424735481</v>
+        <v>0.8693842948043352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -3920,19 +3920,19 @@
         <v>635244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610960</v>
+        <v>611058</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>655456</v>
+        <v>656297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8191032893442003</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.787790984889333</v>
+        <v>0.7879164062632279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8451651695111005</v>
+        <v>0.8462497075637054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1173</v>
@@ -3941,19 +3941,19 @@
         <v>1267966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1238872</v>
+        <v>1237921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1297227</v>
+        <v>1299254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8316300402341608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8125482886450023</v>
+        <v>0.8119247943302151</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8508216890615644</v>
+        <v>0.8521516189148443</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>150830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130352</v>
+        <v>129557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173567</v>
+        <v>174668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1620660426385898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1400620383201069</v>
+        <v>0.1392087355258473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1864973195769654</v>
+        <v>0.1876793653522243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -4066,19 +4066,19 @@
         <v>159580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>138420</v>
+        <v>136894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184931</v>
+        <v>183377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1539954084701487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1335761537151386</v>
+        <v>0.1321034226965996</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1784595066493693</v>
+        <v>0.1769594402935464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -4087,19 +4087,19 @@
         <v>310410</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279424</v>
+        <v>281185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>343286</v>
+        <v>348800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1578140884524714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1420606346684073</v>
+        <v>0.1429559895503155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1745282173646599</v>
+        <v>0.1773315242219882</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>779840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>757103</v>
+        <v>756002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>800318</v>
+        <v>801113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8379339573614102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8135026804230345</v>
+        <v>0.8123206346477756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8599379616798929</v>
+        <v>0.8607912644741527</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>803</v>
@@ -4137,19 +4137,19 @@
         <v>876685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>851334</v>
+        <v>852888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>897845</v>
+        <v>899371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8460045915298513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8215404933506308</v>
+        <v>0.8230405597064535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8664238462848618</v>
+        <v>0.8678965773034003</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1576</v>
@@ -4158,19 +4158,19 @@
         <v>1656525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1623649</v>
+        <v>1618135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1687511</v>
+        <v>1685750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8421859115475286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8254717826353403</v>
+        <v>0.8226684757780123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8579393653315928</v>
+        <v>0.857044010449685</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>453154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.134656121118779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>463</v>
@@ -4283,19 +4283,19 @@
         <v>477446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1357071056157401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>886</v>
@@ -4304,19 +4304,19 @@
         <v>930600</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1351932886635165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2912118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2852</v>
@@ -4354,19 +4354,19 @@
         <v>3040762</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5633</v>
@@ -4375,19 +4375,19 @@
         <v>5952880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>147823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125820</v>
+        <v>123392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175164</v>
+        <v>176398</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2152320876816979</v>
+        <v>0.2152320876816978</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1831955447418204</v>
+        <v>0.1796595768827649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2550404161184323</v>
+        <v>0.2568371511719552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -4740,19 +4740,19 @@
         <v>121905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106193</v>
+        <v>106801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141756</v>
+        <v>140070</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1665174518268378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1450553570409861</v>
+        <v>0.1458866769856694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1936339272672608</v>
+        <v>0.1913298107183225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>269728</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241925</v>
+        <v>241853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301243</v>
+        <v>303310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1900975482158057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1705027289222403</v>
+        <v>0.1704514442811711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2123086670602094</v>
+        <v>0.2137652145502691</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>538986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>511645</v>
+        <v>510411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560989</v>
+        <v>563417</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7847679123183022</v>
+        <v>0.784767912318302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7449595838815677</v>
+        <v>0.743162848828045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8168044552581797</v>
+        <v>0.8203404231172352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1058</v>
@@ -4811,19 +4811,19 @@
         <v>610180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>590329</v>
+        <v>592015</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>625892</v>
+        <v>625284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8334825481731621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8063660727327392</v>
+        <v>0.8086701892816777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8549446429590137</v>
+        <v>0.8541133230143305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1657</v>
@@ -4832,19 +4832,19 @@
         <v>1149166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1117651</v>
+        <v>1115584</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1176969</v>
+        <v>1177041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8099024517841944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7876913329397905</v>
+        <v>0.7862347854497309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8294972710777596</v>
+        <v>0.8295485557188288</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>158575</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133623</v>
+        <v>132150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189085</v>
+        <v>186892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1513513073574899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1275357230919393</v>
+        <v>0.126130323247328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1804715841249926</v>
+        <v>0.1783784789950512</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -4957,19 +4957,19 @@
         <v>155962</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137150</v>
+        <v>135221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178745</v>
+        <v>177290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1457483036550293</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1281684617182127</v>
+        <v>0.1263655972762293</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1670391240646438</v>
+        <v>0.16567994831901</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>330</v>
@@ -4978,19 +4978,19 @@
         <v>314537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>282741</v>
+        <v>280029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347996</v>
+        <v>350852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1485202406629711</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1335064955186117</v>
+        <v>0.1322259349840511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1643191948619711</v>
+        <v>0.1656674767151428</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>889154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858644</v>
+        <v>860837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914106</v>
+        <v>915579</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8486486926425101</v>
+        <v>0.84864869264251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8195284158750069</v>
+        <v>0.8216215210049487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8724642769080607</v>
+        <v>0.8738696767526724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1319</v>
@@ -5028,19 +5028,19 @@
         <v>914116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>891333</v>
+        <v>892788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>932928</v>
+        <v>934857</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8542516963449707</v>
+        <v>0.8542516963449708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8329608759353562</v>
+        <v>0.8343200516809898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8718315382817874</v>
+        <v>0.8736344027237707</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2148</v>
@@ -5049,19 +5049,19 @@
         <v>1803270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1769811</v>
+        <v>1766955</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1835066</v>
+        <v>1837778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8514797593370288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8356808051380289</v>
+        <v>0.8343325232848573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8664935044813883</v>
+        <v>0.8677740650159489</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>148408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121378</v>
+        <v>123984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176438</v>
+        <v>177418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1853552852764149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1515960865550243</v>
+        <v>0.1548503421669399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2203633158276843</v>
+        <v>0.2215876798865573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -5174,19 +5174,19 @@
         <v>108276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89580</v>
+        <v>90518</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127591</v>
+        <v>131859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1336396839599528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1105635512669919</v>
+        <v>0.1117217632539115</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1574786881001071</v>
+        <v>0.1627456861822263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -5195,19 +5195,19 @@
         <v>256684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225796</v>
+        <v>226041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>290450</v>
+        <v>289420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1593442567673823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.140169186126455</v>
+        <v>0.1403213396470954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.180305008627</v>
+        <v>0.1796656716062189</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>652259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624229</v>
+        <v>623249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679289</v>
+        <v>676683</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8146447147235851</v>
+        <v>0.814644714723585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7796366841723156</v>
+        <v>0.7784123201134425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8484039134449757</v>
+        <v>0.8451496578330597</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>921</v>
@@ -5245,19 +5245,19 @@
         <v>701936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>682621</v>
+        <v>678353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720632</v>
+        <v>719694</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8663603160400473</v>
+        <v>0.8663603160400472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8425213118998932</v>
+        <v>0.8372543138177737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8894364487330081</v>
+        <v>0.8882782367460884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1488</v>
@@ -5266,19 +5266,19 @@
         <v>1354195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1320429</v>
+        <v>1321459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1385083</v>
+        <v>1384838</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8406557432326177</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8196949913729999</v>
+        <v>0.8203343283937814</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8598308138735451</v>
+        <v>0.8596786603529045</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>143393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121519</v>
+        <v>121043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171277</v>
+        <v>168511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1448322035551326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1227385556472095</v>
+        <v>0.1222581744673083</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1729960160730924</v>
+        <v>0.1702023733138327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -5391,19 +5391,19 @@
         <v>111245</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92555</v>
+        <v>92162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133171</v>
+        <v>131260</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09947856875020042</v>
+        <v>0.09947856875020045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0827654654799829</v>
+        <v>0.08241356832464271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1190851732677549</v>
+        <v>0.1173766605579928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -5412,19 +5412,19 @@
         <v>254638</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223672</v>
+        <v>221955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287215</v>
+        <v>286081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1207762819009571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1060890330695647</v>
+        <v>0.1052746623893293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1362275293189348</v>
+        <v>0.1356899870137347</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>846669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>818785</v>
+        <v>821551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>868543</v>
+        <v>869019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8551677964448674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8270039839269077</v>
+        <v>0.8297976266861669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8772614443527904</v>
+        <v>0.8777418255326915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1433</v>
@@ -5462,19 +5462,19 @@
         <v>1007038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>985112</v>
+        <v>987023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1025728</v>
+        <v>1026121</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9005214312497994</v>
+        <v>0.9005214312497997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8809148267322453</v>
+        <v>0.8826233394420071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.917234534520017</v>
+        <v>0.9175864316753573</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2308</v>
@@ -5483,19 +5483,19 @@
         <v>1853707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1821130</v>
+        <v>1822264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1884673</v>
+        <v>1886390</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.879223718099043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8637724706810653</v>
+        <v>0.8643100129862654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8939109669304354</v>
+        <v>0.8947253376106712</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>598199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1696890530434719</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>627</v>
@@ -5608,19 +5608,19 @@
         <v>497389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1333246494814634</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1126</v>
@@ -5629,19 +5629,19 @@
         <v>1095588</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1509921729445794</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2927068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4731</v>
@@ -5679,19 +5679,19 @@
         <v>3233269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7601</v>
@@ -5700,19 +5700,19 @@
         <v>6160337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="18">
